--- a/static/files/template_import_dosen.xlsx
+++ b/static/files/template_import_dosen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scholar_crawler v1.4\scholar_crawler\scholar\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646CB58A-7887-4EBC-AC93-5A5EC9C71D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BF76A1-02B9-46CE-A743-D41D7E94074D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11520" xr2:uid="{EADB2C00-8C94-4C13-8EEC-14BCEA69AFEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EADB2C00-8C94-4C13-8EEC-14BCEA69AFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>prodi</t>
   </si>
   <si>
     <t>nama_dosen</t>
+  </si>
+  <si>
+    <t>Ade Ratnasari</t>
+  </si>
+  <si>
+    <t>Agus Mulyanto</t>
+  </si>
+  <si>
+    <t>Aulia Faqih</t>
+  </si>
+  <si>
+    <t>Daru Prasetyawan</t>
+  </si>
+  <si>
+    <t>Dwi Otik Kurniawati</t>
+  </si>
+  <si>
+    <t>Eko Hadi Gunawan</t>
+  </si>
+  <si>
+    <t>Mandahadi Kusuma</t>
+  </si>
+  <si>
+    <t>M Didik R Wahyudi</t>
+  </si>
+  <si>
+    <t>Muhammad Galih Wonoseto</t>
+  </si>
+  <si>
+    <t>M Mustakim</t>
+  </si>
+  <si>
+    <t>Maria Ulfah Siregar</t>
+  </si>
+  <si>
+    <t>Nurochman</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat</t>
+  </si>
+  <si>
+    <t>Siti Mutmainah</t>
+  </si>
+  <si>
+    <t>Sumarsono</t>
+  </si>
+  <si>
+    <t>Agung Fatwanto</t>
+  </si>
+  <si>
+    <t>Bambang Sugiantoro</t>
+  </si>
+  <si>
+    <t>Muhammad Taufiq Nuruzzaman</t>
+  </si>
+  <si>
+    <t>Shofwatul 'Uyun</t>
+  </si>
+  <si>
+    <t>S-1 Informatika</t>
+  </si>
+  <si>
+    <t>S-2 Informatika</t>
   </si>
 </sst>
 </file>
@@ -389,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F798E8E-852A-438B-9163-5CB434515378}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +472,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
